--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -125,9 +125,6 @@
     <t>Mackerel</t>
   </si>
   <si>
-    <t>Monkfish</t>
-  </si>
-  <si>
     <t>Red gurnard</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Barbue &amp; Turbot</t>
+  </si>
+  <si>
+    <t>Anglefish</t>
   </si>
 </sst>
 </file>
@@ -225,6 +225,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D31" totalsRowShown="0">
   <autoFilter ref="A1:D31"/>
+  <sortState ref="A2:D31">
+    <sortCondition ref="A1:A31"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="spplat"/>
     <tableColumn id="2" name="sppeng"/>
@@ -501,7 +504,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,13 +529,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -540,41 +543,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -582,13 +585,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -596,13 +599,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -610,13 +613,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -624,13 +627,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -638,13 +641,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -652,13 +655,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -666,13 +669,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -680,13 +683,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -694,13 +697,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -708,13 +711,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -722,13 +725,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -736,13 +739,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -750,13 +753,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -764,13 +767,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -778,13 +781,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -792,13 +795,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -806,10 +809,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -820,10 +823,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -837,10 +840,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -851,10 +854,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -862,13 +865,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -876,13 +879,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -890,13 +893,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -904,13 +907,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -918,13 +921,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -932,13 +935,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>spplat</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Anglefish</t>
+  </si>
+  <si>
+    <t>Argyrosomus regius</t>
+  </si>
+  <si>
+    <t>Meagre</t>
+  </si>
+  <si>
+    <t>Maigre</t>
   </si>
 </sst>
 </file>
@@ -223,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D31" totalsRowShown="0">
-  <autoFilter ref="A1:D31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33"/>
   <sortState ref="A2:D31">
     <sortCondition ref="A1:A31"/>
   </sortState>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,13 +650,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -655,13 +664,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -669,13 +678,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -683,13 +692,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -697,13 +706,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -711,13 +720,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -725,13 +734,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -739,13 +748,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -753,13 +762,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -767,13 +776,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -781,13 +790,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -795,13 +804,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -809,13 +818,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -823,13 +832,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -837,13 +846,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -851,13 +860,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -865,13 +874,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -879,13 +888,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -893,13 +902,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -907,13 +916,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -921,13 +930,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -935,15 +944,43 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ACCOBIOM détail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="159">
   <si>
     <t>spplat</t>
   </si>
@@ -177,6 +178,330 @@
   </si>
   <si>
     <t>Maigre</t>
+  </si>
+  <si>
+    <t>Acanthostracion polygonius</t>
+  </si>
+  <si>
+    <t>Coffre nid d'abeille</t>
+  </si>
+  <si>
+    <t>Chirurgien océanique</t>
+  </si>
+  <si>
+    <t>Aluterus scriptus</t>
+  </si>
+  <si>
+    <t>Bourse écriture</t>
+  </si>
+  <si>
+    <t>Baliste royal</t>
+  </si>
+  <si>
+    <t>Calamus bajonado</t>
+  </si>
+  <si>
+    <t>Daubenet trembleur</t>
+  </si>
+  <si>
+    <t>Bourse cabri</t>
+  </si>
+  <si>
+    <t>Canthidermis sufflamen</t>
+  </si>
+  <si>
+    <t>Baliste océanique</t>
+  </si>
+  <si>
+    <t>Caranx latus</t>
+  </si>
+  <si>
+    <t>Caranx ruber</t>
+  </si>
+  <si>
+    <t>Crangue franche</t>
+  </si>
+  <si>
+    <t>Cephalopholis fulva</t>
+  </si>
+  <si>
+    <t>Mérou ouatalibi</t>
+  </si>
+  <si>
+    <t>Epinephelus guttatus</t>
+  </si>
+  <si>
+    <t>Mérou couronné</t>
+  </si>
+  <si>
+    <t>Mérou de nassau</t>
+  </si>
+  <si>
+    <t>Etelis oculatus</t>
+  </si>
+  <si>
+    <t>Vivaneau royale</t>
+  </si>
+  <si>
+    <t>Haemulon carbonarium</t>
+  </si>
+  <si>
+    <t>Gorette charbonnée</t>
+  </si>
+  <si>
+    <t>Gorette jaune</t>
+  </si>
+  <si>
+    <t>Haemulon parra</t>
+  </si>
+  <si>
+    <t>Gorette marchand</t>
+  </si>
+  <si>
+    <t>Haemulon plumierii</t>
+  </si>
+  <si>
+    <t>Gorette blanche</t>
+  </si>
+  <si>
+    <t>Haemulon sciurus</t>
+  </si>
+  <si>
+    <t>Gorette catire</t>
+  </si>
+  <si>
+    <t>Lutjanus analis</t>
+  </si>
+  <si>
+    <t>Vivaneau sorbe</t>
+  </si>
+  <si>
+    <t>Lutjanus apodus</t>
+  </si>
+  <si>
+    <t>Lutjanus buccanella</t>
+  </si>
+  <si>
+    <t>Vivaneau oreille noire</t>
+  </si>
+  <si>
+    <t>Vivaneau soie</t>
+  </si>
+  <si>
+    <t>Mulloidichthys martinicus</t>
+  </si>
+  <si>
+    <t>Barbarin blanc</t>
+  </si>
+  <si>
+    <t>Ocyurus chrysurus</t>
+  </si>
+  <si>
+    <t>Sarde queue jaune</t>
+  </si>
+  <si>
+    <t>Priacanthus arenatus</t>
+  </si>
+  <si>
+    <t>Soleil franc</t>
+  </si>
+  <si>
+    <t>Pseudupeneus maculatus</t>
+  </si>
+  <si>
+    <t>Barbarin rouge</t>
+  </si>
+  <si>
+    <t>Pterois volitans</t>
+  </si>
+  <si>
+    <t>Rascasse volante</t>
+  </si>
+  <si>
+    <t>Sparisoma aurofrenatum</t>
+  </si>
+  <si>
+    <t>Perroquet à bande rouge</t>
+  </si>
+  <si>
+    <t>Sparisoma chrysopterum</t>
+  </si>
+  <si>
+    <t>Perroquet vert</t>
+  </si>
+  <si>
+    <t>Sparisoma rubripinne</t>
+  </si>
+  <si>
+    <t>Perroquet queue jaune</t>
+  </si>
+  <si>
+    <t>Sparisoma viride</t>
+  </si>
+  <si>
+    <t>Perroquet feu</t>
+  </si>
+  <si>
+    <t>Honeycomb cowfish</t>
+  </si>
+  <si>
+    <t>Acanthurus bahianus</t>
+  </si>
+  <si>
+    <t>Barber surgeonfish</t>
+  </si>
+  <si>
+    <t>Scribbled leatherjacket filefish</t>
+  </si>
+  <si>
+    <t>Balistes vetula</t>
+  </si>
+  <si>
+    <t>Queen triggerfish</t>
+  </si>
+  <si>
+    <t>Jolthead porgy</t>
+  </si>
+  <si>
+    <t>Cantherhines macrocerus</t>
+  </si>
+  <si>
+    <t>American whitespotted filefish</t>
+  </si>
+  <si>
+    <t>Ocean triggerfish</t>
+  </si>
+  <si>
+    <t>Horse-eye Jack</t>
+  </si>
+  <si>
+    <t>Bar jack</t>
+  </si>
+  <si>
+    <t>Coney</t>
+  </si>
+  <si>
+    <t>Red hind</t>
+  </si>
+  <si>
+    <t>Epinephelus striatus</t>
+  </si>
+  <si>
+    <t>Nassau grouper</t>
+  </si>
+  <si>
+    <t>Queen snapper</t>
+  </si>
+  <si>
+    <t>Caesar grunt</t>
+  </si>
+  <si>
+    <t>Haemulon flavolineatum</t>
+  </si>
+  <si>
+    <t>French grunt</t>
+  </si>
+  <si>
+    <t>Sailor's grunt</t>
+  </si>
+  <si>
+    <t>White grunt</t>
+  </si>
+  <si>
+    <t>Bluestriped grunt</t>
+  </si>
+  <si>
+    <t>Mutton snapper</t>
+  </si>
+  <si>
+    <t>Schollmaster snapper</t>
+  </si>
+  <si>
+    <t>Blackfin snapper</t>
+  </si>
+  <si>
+    <t>Lutjnanus vivanus</t>
+  </si>
+  <si>
+    <t>Silk snapper</t>
+  </si>
+  <si>
+    <t>Yellow goatfish</t>
+  </si>
+  <si>
+    <t>Yellowtail snapper</t>
+  </si>
+  <si>
+    <t>Atlantic bigeye</t>
+  </si>
+  <si>
+    <t>Spotted goatfish</t>
+  </si>
+  <si>
+    <t>Red lionfish</t>
+  </si>
+  <si>
+    <t>Redband parrotfish</t>
+  </si>
+  <si>
+    <t>Redtail parrotfish</t>
+  </si>
+  <si>
+    <t>Redfin parrotfish</t>
+  </si>
+  <si>
+    <t>Spotlight parrotfish</t>
+  </si>
+  <si>
+    <t>Epinephelinae sp.</t>
+  </si>
+  <si>
+    <t>Grouper</t>
+  </si>
+  <si>
+    <t>Caranx sp.</t>
+  </si>
+  <si>
+    <t>Carangues</t>
+  </si>
+  <si>
+    <t>Mérous</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Haemulon sp.</t>
+  </si>
+  <si>
+    <t>Gorettes</t>
+  </si>
+  <si>
+    <t>Grunt</t>
+  </si>
+  <si>
+    <t>Lutjanus sp.</t>
+  </si>
+  <si>
+    <t>Vivaneaux</t>
+  </si>
+  <si>
+    <t>Snapper</t>
+  </si>
+  <si>
+    <t>Sparisoma sp.</t>
+  </si>
+  <si>
+    <t>Parrotfish</t>
+  </si>
+  <si>
+    <t>Perroquet</t>
+  </si>
+  <si>
+    <t>Carangue gros yeux</t>
+  </si>
+  <si>
+    <t>Vivaneau dent-chien</t>
   </si>
 </sst>
 </file>
@@ -192,15 +517,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,12 +539,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,8 +606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D37" totalsRowShown="0">
+  <autoFilter ref="A1:D37"/>
   <sortState ref="A2:D31">
     <sortCondition ref="A1:A31"/>
   </sortState>
@@ -510,16 +884,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +914,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -552,13 +928,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -566,13 +942,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -580,13 +956,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -594,13 +970,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -608,13 +984,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -622,13 +998,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -636,13 +1012,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -650,13 +1026,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -664,13 +1040,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -678,13 +1054,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -692,13 +1068,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -706,13 +1082,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -720,13 +1096,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -734,13 +1110,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -748,13 +1124,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -762,13 +1138,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -776,13 +1152,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -790,13 +1166,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -804,13 +1180,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -818,13 +1194,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -832,13 +1208,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -846,13 +1222,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -860,13 +1236,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -874,13 +1250,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -888,13 +1264,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -902,13 +1278,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -916,13 +1292,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -930,13 +1306,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -944,13 +1320,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -958,13 +1334,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -972,15 +1348,71 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s">
         <v>11</v>
       </c>
     </row>
@@ -990,4 +1422,1276 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="159">
   <si>
     <t>spplat</t>
   </si>
@@ -531,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -576,11 +576,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -588,6 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D37" totalsRowShown="0">
-  <autoFilter ref="A1:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D69" totalsRowShown="0">
+  <autoFilter ref="A1:D69"/>
   <sortState ref="A2:D31">
     <sortCondition ref="A1:A31"/>
   </sortState>
@@ -884,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,6 +1450,454 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1428,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,518 +947,518 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C29" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C31" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B33" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C35" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D35" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C36" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>154</v>
-      </c>
-      <c r="B37" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>10</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>11</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -1536,27 +1536,27 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
+      <c r="A45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>11</v>
@@ -1564,27 +1564,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>50</v>
+      <c r="A47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>11</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>10</v>
@@ -1606,13 +1606,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>11</v>
@@ -1620,13 +1620,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
@@ -1634,13 +1634,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>11</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>11</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>11</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>10</v>
@@ -1774,13 +1774,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
@@ -1788,13 +1788,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
@@ -1802,13 +1802,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>11</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>10</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>11</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>10</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>11</v>
@@ -1910,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:J32"/>
     </sheetView>
   </sheetViews>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alemeled\Desktop\RStudio Maturite\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alemeled\Desktop\GitHub Mat\MaturityScaleTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="160">
   <si>
     <t>spplat</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Vivaneau dent-chien</t>
+  </si>
+  <si>
+    <t>Brill &amp; Turbot</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
@@ -1273,7 +1276,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>46</v>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -645,8 +645,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D69" totalsRowShown="0">
   <autoFilter ref="A1:D69"/>
-  <sortState ref="A2:D31">
-    <sortCondition ref="A1:A31"/>
+  <sortState ref="A2:D69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="spplat"/>
@@ -923,15 +923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="2" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -951,27 +950,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -979,27 +978,27 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
+      <c r="A5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1007,13 +1006,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1021,13 +1020,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1035,27 +1034,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1063,13 +1062,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -1077,13 +1076,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1091,13 +1090,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -1105,13 +1104,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1119,13 +1118,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1133,13 +1132,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
@@ -1147,13 +1146,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -1161,13 +1160,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -1175,13 +1174,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -1189,13 +1188,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -1203,13 +1202,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -1217,13 +1216,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
@@ -1231,13 +1230,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -1245,13 +1244,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
@@ -1259,27 +1258,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
+      <c r="A25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>11</v>
@@ -1287,13 +1286,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -1301,13 +1300,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>11</v>
@@ -1315,13 +1314,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -1329,13 +1328,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
@@ -1343,13 +1342,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>10</v>
@@ -1357,13 +1356,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
@@ -1371,13 +1370,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>10</v>
@@ -1385,13 +1384,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
@@ -1399,13 +1398,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -1413,13 +1412,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
@@ -1427,13 +1426,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
@@ -1441,13 +1440,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -1455,13 +1454,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1469,13 +1468,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
@@ -1483,13 +1482,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>10</v>
@@ -1497,13 +1496,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>11</v>
@@ -1511,13 +1510,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
@@ -1525,13 +1524,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -1539,13 +1538,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
@@ -1553,13 +1552,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>11</v>
@@ -1567,13 +1566,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
@@ -1581,13 +1580,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>11</v>
@@ -1595,13 +1594,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>10</v>
@@ -1609,13 +1608,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>11</v>
@@ -1623,13 +1622,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
@@ -1637,13 +1636,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>11</v>
@@ -1651,13 +1650,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
@@ -1665,13 +1664,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>11</v>
@@ -1679,13 +1678,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
@@ -1693,13 +1692,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
@@ -1707,13 +1706,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
@@ -1721,13 +1720,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>11</v>
@@ -1735,13 +1734,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
@@ -1749,13 +1748,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
@@ -1763,13 +1762,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>10</v>
@@ -1777,13 +1776,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
@@ -1791,13 +1790,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
@@ -1805,13 +1804,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>11</v>
@@ -1819,13 +1818,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>10</v>
@@ -1833,13 +1832,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>11</v>
@@ -1847,13 +1846,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>10</v>
@@ -1861,13 +1860,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -1875,13 +1874,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
@@ -1889,13 +1888,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>11</v>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -773,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="A70" sqref="A70:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,66 +1753,81 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>109</v>
-      </c>
-      <c r="C72" t="s">
-        <v>110</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
   <si>
     <t>spplat</t>
   </si>
@@ -349,15 +348,6 @@
   </si>
   <si>
     <t>Sériole limon</t>
-  </si>
-  <si>
-    <t>Anisotremus surinamensis</t>
-  </si>
-  <si>
-    <t>Black margate</t>
-  </si>
-  <si>
-    <t>Lippu croupia</t>
   </si>
 </sst>
 </file>
@@ -496,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D73" totalsRowShown="0">
-  <autoFilter ref="A1:D73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D71" totalsRowShown="0">
+  <autoFilter ref="A1:D71"/>
   <sortState ref="A2:D69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -774,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:D73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,81 +1743,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="108">
   <si>
     <t>spplat</t>
   </si>
@@ -457,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -468,6 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,4 +1779,999 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
   <si>
     <t>spplat</t>
   </si>
@@ -458,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -469,7 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D71"/>
     </sheetView>
   </sheetViews>
@@ -1779,999 +1777,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
   <si>
     <t>spplat</t>
   </si>
@@ -62,15 +62,9 @@
     <t>M</t>
   </si>
   <si>
-    <t>Mullus surmuletus</t>
-  </si>
-  <si>
     <t>Red mullet</t>
   </si>
   <si>
-    <t>Rouget barbet de roche</t>
-  </si>
-  <si>
     <t>Engraulis encrasicolus</t>
   </si>
   <si>
@@ -348,18 +342,72 @@
   </si>
   <si>
     <t>Sériole limon</t>
+  </si>
+  <si>
+    <t>Trisopterus minutus</t>
+  </si>
+  <si>
+    <t>Poor-cod</t>
+  </si>
+  <si>
+    <t>Capelan</t>
+  </si>
+  <si>
+    <t>Trachurus sp.</t>
+  </si>
+  <si>
+    <t>Horse mackerel</t>
+  </si>
+  <si>
+    <t>Chinchard</t>
+  </si>
+  <si>
+    <t>Boops boops</t>
+  </si>
+  <si>
+    <t>Bogue</t>
+  </si>
+  <si>
+    <t>Sparus aurata</t>
+  </si>
+  <si>
+    <t>Gilt-head bream</t>
+  </si>
+  <si>
+    <t>Dorade royale</t>
+  </si>
+  <si>
+    <t>Mullus sp.</t>
+  </si>
+  <si>
+    <t>Rouget barbet</t>
+  </si>
+  <si>
+    <t>Eutrigla gurnardus</t>
+  </si>
+  <si>
+    <t>Grey gurnard</t>
+  </si>
+  <si>
+    <t>Grondin gris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -377,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -422,11 +470,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -434,6 +502,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +631,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D71" totalsRowShown="0">
-  <autoFilter ref="A1:D71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D81" totalsRowShown="0">
+  <autoFilter ref="A1:D81"/>
   <sortState ref="A2:D69">
     <sortCondition ref="A1:A69"/>
   </sortState>
@@ -838,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D81" sqref="A72:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,13 +938,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -881,13 +952,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -895,13 +966,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -909,13 +980,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -923,13 +994,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -937,13 +1008,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -951,13 +1022,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>10</v>
@@ -965,13 +1036,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -979,13 +1050,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -993,13 +1064,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1007,13 +1078,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
@@ -1021,13 +1092,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1035,13 +1106,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
@@ -1049,13 +1120,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
@@ -1063,13 +1134,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
@@ -1077,13 +1148,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
@@ -1091,13 +1162,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -1105,13 +1176,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>11</v>
@@ -1119,13 +1190,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
@@ -1133,13 +1204,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>11</v>
@@ -1147,13 +1218,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -1161,13 +1232,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
@@ -1203,13 +1274,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>10</v>
@@ -1217,13 +1288,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>11</v>
@@ -1231,13 +1302,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -1245,13 +1316,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
@@ -1259,13 +1330,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>10</v>
@@ -1273,13 +1344,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
@@ -1315,13 +1386,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
@@ -1329,13 +1400,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
@@ -1343,13 +1414,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>10</v>
@@ -1357,13 +1428,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="C37" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -1371,13 +1442,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>10</v>
@@ -1385,13 +1456,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>11</v>
@@ -1399,13 +1470,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>10</v>
@@ -1413,13 +1484,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="C41" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>11</v>
@@ -1427,13 +1498,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>10</v>
@@ -1441,13 +1512,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -1455,13 +1526,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
@@ -1469,13 +1540,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>11</v>
@@ -1483,27 +1554,27 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>14</v>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>11</v>
@@ -1511,13 +1582,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>10</v>
@@ -1525,13 +1596,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>11</v>
@@ -1539,13 +1610,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
@@ -1553,13 +1624,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>11</v>
@@ -1567,13 +1638,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
@@ -1581,13 +1652,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>11</v>
@@ -1595,13 +1666,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
@@ -1609,13 +1680,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
@@ -1623,13 +1694,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>10</v>
@@ -1637,13 +1708,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>11</v>
@@ -1651,13 +1722,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>10</v>
@@ -1665,13 +1736,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
@@ -1679,13 +1750,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>10</v>
@@ -1693,13 +1764,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
@@ -1707,13 +1778,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>10</v>
@@ -1721,13 +1792,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>11</v>
@@ -1735,13 +1806,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>10</v>
@@ -1749,13 +1820,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>11</v>
@@ -1763,13 +1834,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>10</v>
@@ -1777,13 +1848,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -1791,13 +1862,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
@@ -1805,13 +1876,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>11</v>
@@ -1819,13 +1890,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>10</v>
@@ -1833,15 +1904,155 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="D71" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="B72" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="C72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -396,18 +396,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -425,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -470,31 +464,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -502,14 +476,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -637,10 +639,10 @@
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="spplat" dataDxfId="2"/>
-    <tableColumn id="2" name="sppeng" dataDxfId="1"/>
-    <tableColumn id="3" name="sppfr" dataDxfId="0"/>
-    <tableColumn id="4" name="sex"/>
+    <tableColumn id="1" name="spplat" dataDxfId="3"/>
+    <tableColumn id="2" name="sppeng" dataDxfId="2"/>
+    <tableColumn id="3" name="sppfr" dataDxfId="1"/>
+    <tableColumn id="4" name="sex" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D81" sqref="A72:D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,142 +1919,142 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/dataLOOP.xlsx
+++ b/data/dataLOOP.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="125">
   <si>
     <t>spplat</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>Grondin gris</t>
+  </si>
+  <si>
+    <t>Osmerus eperlanus</t>
+  </si>
+  <si>
+    <t>European smelt</t>
+  </si>
+  <si>
+    <t>Eperlan d'Europe</t>
   </si>
 </sst>
 </file>
@@ -481,37 +490,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -619,6 +597,37 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -633,16 +642,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D81" totalsRowShown="0">
-  <autoFilter ref="A1:D81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D83" totalsRowShown="0">
+  <autoFilter ref="A1:D83"/>
   <sortState ref="A2:D69">
     <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="spplat" dataDxfId="3"/>
-    <tableColumn id="2" name="sppeng" dataDxfId="2"/>
-    <tableColumn id="3" name="sppfr" dataDxfId="1"/>
-    <tableColumn id="4" name="sex" dataDxfId="0"/>
+    <tableColumn id="1" name="spplat" dataDxfId="2"/>
+    <tableColumn id="2" name="sppeng" dataDxfId="1"/>
+    <tableColumn id="3" name="sppfr" dataDxfId="0"/>
+    <tableColumn id="4" name="sex" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,6 +2067,34 @@
         <v>11</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
